--- a/test_data/test_api_data.xlsx
+++ b/test_data/test_api_data.xlsx
@@ -1103,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,6 +1218,7 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,7 +1230,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test_data/test_api_data.xlsx
+++ b/test_data/test_api_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>login_0001</t>
-  </si>
-  <si>
-    <t>登录接口</t>
   </si>
   <si>
     <t>post</t>
@@ -92,10 +89,6 @@
   </si>
   <si>
     <t>{'ResponseStatus': {'ErrorCode': '0'}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'ResponseStatus': {'ErrorCode': '90002', 'Message': '用户密码错误'}}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -169,6 +162,18 @@
     <t>{
 "Content-Type": "application/x-www-form-urlencoded; charset=UTF-8"
 }</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口_密码错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口_用户密码正确</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'ResponseStatus': {'ErrorCode': '90002', 'Message': '用户密码错误'}}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1105,14 +1110,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
@@ -1125,37 +1130,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.15">
@@ -1163,59 +1168,59 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1229,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,67 +1253,67 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="318" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
